--- a/biology/Zoologie/Eoeugnathus/Eoeugnathus.xlsx
+++ b/biology/Zoologie/Eoeugnathus/Eoeugnathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eoeugnathus megalepis
 Eoeugnathus est un genre fossile de poissons à nageoires rayonnées de la famille également fossile des Panxianichthyidae qui ont vécu de l’Anisien au Ladinien du Trias moyen. Une seule espèce est connue, Eoeugnathus megalepis (Brough, 1939).
@@ -512,11 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eoeugnathus et l'espèce Eoeugnathus megalepsis sont créés et décrits en 1939 par le paléontologue britannique James Brough (d) (1904-1988)[1],[2],[3]
-Étymologie
-L'épithète spécifique megalepsis signifie en latin « méga charme ».[réf. nécessaire]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eoeugnathus et l'espèce Eoeugnathus megalepsis sont créés et décrits en 1939 par le paléontologue britannique James Brough (d) (1904-1988)
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Des restes fossiles d’Eoeugnathus ont été mis au jour en Italie, en Espagne et en Suisse.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique megalepsis signifie en latin « méga charme ».[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -573,12 +591,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des restes fossiles d’Eoeugnathus ont été mis au jour en Italie, en Espagne et en Suisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eoeugnathus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eoeugnathus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1939] (en) James Brough (d), The Triassic fishes of Besano, Lombardy, 1939, 1-117 p. .</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (en) James Brough (d), The Triassic fishes of Besano, Lombardy, 1939, 1-117 p. .</t>
         </is>
       </c>
     </row>
